--- a/neep.xlsx
+++ b/neep.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="233">
   <si>
     <t>英文缩写</t>
   </si>
@@ -56,10 +56,10 @@
     <t>CXC_num</t>
   </si>
   <si>
-    <t>2018-04-13</t>
-  </si>
-  <si>
-    <t>20180412</t>
+    <t>2018-04-26</t>
+  </si>
+  <si>
+    <t>20180425</t>
   </si>
   <si>
     <t>证券代码</t>
@@ -71,436 +71,652 @@
     <t>涨幅</t>
   </si>
   <si>
-    <t>430212</t>
-  </si>
-  <si>
-    <t>430706</t>
-  </si>
-  <si>
-    <t>834742</t>
-  </si>
-  <si>
-    <t>831734</t>
-  </si>
-  <si>
-    <t>831496</t>
-  </si>
-  <si>
-    <t>六合伟业</t>
-  </si>
-  <si>
-    <t>海芯华夏</t>
-  </si>
-  <si>
-    <t>麦克韦尔</t>
-  </si>
-  <si>
-    <t>展通电信</t>
-  </si>
-  <si>
-    <t>华燕房盟</t>
+    <t>831988</t>
+  </si>
+  <si>
+    <t>830874</t>
+  </si>
+  <si>
+    <t>831963</t>
+  </si>
+  <si>
+    <t>430617</t>
+  </si>
+  <si>
+    <t>831744</t>
+  </si>
+  <si>
+    <t>乐普四方</t>
+  </si>
+  <si>
+    <t>金田元丰</t>
+  </si>
+  <si>
+    <t>ST明利</t>
+  </si>
+  <si>
+    <t>ST欧迅</t>
+  </si>
+  <si>
+    <t>万信达</t>
   </si>
   <si>
     <t>跌幅</t>
   </si>
   <si>
-    <t>831493</t>
-  </si>
-  <si>
-    <t>430580</t>
-  </si>
-  <si>
-    <t>832837</t>
-  </si>
-  <si>
-    <t>831411</t>
-  </si>
-  <si>
-    <t>430389</t>
-  </si>
-  <si>
-    <t>赛特传媒</t>
-  </si>
-  <si>
-    <t>云天软件</t>
-  </si>
-  <si>
-    <t>莱姆佳</t>
-  </si>
-  <si>
-    <t>三重股份</t>
-  </si>
-  <si>
-    <t>意普万</t>
+    <t>834015</t>
+  </si>
+  <si>
+    <t>834856</t>
+  </si>
+  <si>
+    <t>832698</t>
+  </si>
+  <si>
+    <t>831975</t>
+  </si>
+  <si>
+    <t>830976</t>
+  </si>
+  <si>
+    <t>金海岸</t>
+  </si>
+  <si>
+    <t>国游网络</t>
+  </si>
+  <si>
+    <t>青雨传媒</t>
+  </si>
+  <si>
+    <t>ST温迪</t>
+  </si>
+  <si>
+    <t>电通微电</t>
   </si>
   <si>
     <t>成交额(元)</t>
   </si>
   <si>
-    <t>835092</t>
+    <t>831550</t>
+  </si>
+  <si>
+    <t>430508</t>
+  </si>
+  <si>
+    <t>833014</t>
   </si>
   <si>
     <t>831297</t>
   </si>
   <si>
-    <t>830899</t>
+    <t>837062</t>
+  </si>
+  <si>
+    <t>成大生物</t>
+  </si>
+  <si>
+    <t>中视文化</t>
+  </si>
+  <si>
+    <t>中标集团</t>
+  </si>
+  <si>
+    <t>数字认证</t>
+  </si>
+  <si>
+    <t>同成医药</t>
+  </si>
+  <si>
+    <t>成交价</t>
+  </si>
+  <si>
+    <t>成交量(股)</t>
+  </si>
+  <si>
+    <t>430629</t>
+  </si>
+  <si>
+    <t>833208</t>
+  </si>
+  <si>
+    <t>834486</t>
+  </si>
+  <si>
+    <t>839480</t>
+  </si>
+  <si>
+    <t>838603</t>
+  </si>
+  <si>
+    <t>870661</t>
+  </si>
+  <si>
+    <t>430719</t>
+  </si>
+  <si>
+    <t>430666</t>
+  </si>
+  <si>
+    <t>835199</t>
+  </si>
+  <si>
+    <t>834388</t>
+  </si>
+  <si>
+    <t>836046</t>
+  </si>
+  <si>
+    <t>833182</t>
+  </si>
+  <si>
+    <t>831142</t>
+  </si>
+  <si>
+    <t>832028</t>
+  </si>
+  <si>
+    <t>871865</t>
+  </si>
+  <si>
+    <t>831926</t>
+  </si>
+  <si>
+    <t>834173</t>
+  </si>
+  <si>
+    <t>872695</t>
+  </si>
+  <si>
+    <t>832459</t>
+  </si>
+  <si>
+    <t>834689</t>
+  </si>
+  <si>
+    <t>834767</t>
+  </si>
+  <si>
+    <t>839737</t>
+  </si>
+  <si>
+    <t>838792</t>
+  </si>
+  <si>
+    <t>832246</t>
+  </si>
+  <si>
+    <t>832018</t>
+  </si>
+  <si>
+    <t>835622</t>
+  </si>
+  <si>
+    <t>835901</t>
+  </si>
+  <si>
+    <t>835425</t>
+  </si>
+  <si>
+    <t>834668</t>
+  </si>
+  <si>
+    <t>871122</t>
+  </si>
+  <si>
+    <t>430164</t>
+  </si>
+  <si>
+    <t>833351</t>
+  </si>
+  <si>
+    <t>836875</t>
+  </si>
+  <si>
+    <t>871707</t>
+  </si>
+  <si>
+    <t>871510</t>
+  </si>
+  <si>
+    <t>837421</t>
   </si>
   <si>
     <t>833330</t>
   </si>
   <si>
-    <t>钢银电商</t>
-  </si>
-  <si>
-    <t>数字认证</t>
-  </si>
-  <si>
-    <t>联讯证券</t>
+    <t>831033</t>
+  </si>
+  <si>
+    <t>831996</t>
+  </si>
+  <si>
+    <t>430488</t>
+  </si>
+  <si>
+    <t>834777</t>
+  </si>
+  <si>
+    <t>833574</t>
+  </si>
+  <si>
+    <t>832710</t>
+  </si>
+  <si>
+    <t>871906</t>
+  </si>
+  <si>
+    <t>430385</t>
+  </si>
+  <si>
+    <t>871958</t>
+  </si>
+  <si>
+    <t>833729</t>
+  </si>
+  <si>
+    <t>838054</t>
+  </si>
+  <si>
+    <t>832492</t>
+  </si>
+  <si>
+    <t>838209</t>
+  </si>
+  <si>
+    <t>831188</t>
+  </si>
+  <si>
+    <t>837526</t>
+  </si>
+  <si>
+    <t>837638</t>
+  </si>
+  <si>
+    <t>430746</t>
+  </si>
+  <si>
+    <t>834987</t>
+  </si>
+  <si>
+    <t>834559</t>
+  </si>
+  <si>
+    <t>430754</t>
+  </si>
+  <si>
+    <t>831221</t>
+  </si>
+  <si>
+    <t>430382</t>
+  </si>
+  <si>
+    <t>831752</t>
+  </si>
+  <si>
+    <t>833504</t>
+  </si>
+  <si>
+    <t>430330</t>
+  </si>
+  <si>
+    <t>831072</t>
+  </si>
+  <si>
+    <t>835273</t>
+  </si>
+  <si>
+    <t>839847</t>
+  </si>
+  <si>
+    <t>832344</t>
+  </si>
+  <si>
+    <t>836019</t>
+  </si>
+  <si>
+    <t>834166</t>
+  </si>
+  <si>
+    <t>833573</t>
+  </si>
+  <si>
+    <t>832480</t>
+  </si>
+  <si>
+    <t>831218</t>
+  </si>
+  <si>
+    <t>834360</t>
+  </si>
+  <si>
+    <t>430037</t>
+  </si>
+  <si>
+    <t>833784</t>
+  </si>
+  <si>
+    <t>836281</t>
+  </si>
+  <si>
+    <t>871224</t>
+  </si>
+  <si>
+    <t>834678</t>
+  </si>
+  <si>
+    <t>831451</t>
+  </si>
+  <si>
+    <t>837713</t>
+  </si>
+  <si>
+    <t>835815</t>
+  </si>
+  <si>
+    <t>430141</t>
+  </si>
+  <si>
+    <t>838456</t>
+  </si>
+  <si>
+    <t>870510</t>
+  </si>
+  <si>
+    <t>835708</t>
+  </si>
+  <si>
+    <t>835697</t>
+  </si>
+  <si>
+    <t>430097</t>
+  </si>
+  <si>
+    <t>839195</t>
+  </si>
+  <si>
+    <t>834263</t>
+  </si>
+  <si>
+    <t>831253</t>
+  </si>
+  <si>
+    <t>430510</t>
+  </si>
+  <si>
+    <t>837200</t>
+  </si>
+  <si>
+    <t>国科海博</t>
+  </si>
+  <si>
+    <t>摆渡股份</t>
+  </si>
+  <si>
+    <t>德佑电气</t>
+  </si>
+  <si>
+    <t>联瀛科技</t>
+  </si>
+  <si>
+    <t>车工股份</t>
+  </si>
+  <si>
+    <t>和旭股份</t>
+  </si>
+  <si>
+    <t>九鼎集团</t>
+  </si>
+  <si>
+    <t>绿伞化学</t>
+  </si>
+  <si>
+    <t>中传股份</t>
+  </si>
+  <si>
+    <t>远成股份</t>
+  </si>
+  <si>
+    <t>捷强动力</t>
+  </si>
+  <si>
+    <t>万星面业</t>
+  </si>
+  <si>
+    <t>易讯通</t>
+  </si>
+  <si>
+    <t>汇元科技</t>
+  </si>
+  <si>
+    <t>弘顺科技</t>
+  </si>
+  <si>
+    <t>丰荣航空</t>
+  </si>
+  <si>
+    <t>龙汇东方</t>
+  </si>
+  <si>
+    <t>润涛科技</t>
+  </si>
+  <si>
+    <t>华澳能源</t>
+  </si>
+  <si>
+    <t>小拇指</t>
+  </si>
+  <si>
+    <t>爱富希</t>
+  </si>
+  <si>
+    <t>鸥玛软件</t>
+  </si>
+  <si>
+    <t>四环锌锗</t>
+  </si>
+  <si>
+    <t>润天智</t>
+  </si>
+  <si>
+    <t>固特超声</t>
+  </si>
+  <si>
+    <t>欢乐动漫</t>
+  </si>
+  <si>
+    <t>添力科技</t>
+  </si>
+  <si>
+    <t>中科水生</t>
+  </si>
+  <si>
+    <t>同昌保险</t>
+  </si>
+  <si>
+    <t>喀什银行</t>
+  </si>
+  <si>
+    <t>大医股份</t>
+  </si>
+  <si>
+    <t>中奥汇成</t>
+  </si>
+  <si>
+    <t>中健网农</t>
+  </si>
+  <si>
+    <t>利林商业</t>
+  </si>
+  <si>
+    <t>大境生态</t>
+  </si>
+  <si>
+    <t>ST以太</t>
   </si>
   <si>
     <t>君实生物</t>
   </si>
   <si>
-    <t>成交价</t>
-  </si>
-  <si>
-    <t>成交量(股)</t>
-  </si>
-  <si>
-    <t>835012</t>
-  </si>
-  <si>
-    <t>838716</t>
-  </si>
-  <si>
-    <t>834624</t>
-  </si>
-  <si>
-    <t>832459</t>
-  </si>
-  <si>
-    <t>835681</t>
-  </si>
-  <si>
-    <t>839655</t>
-  </si>
-  <si>
-    <t>836238</t>
-  </si>
-  <si>
-    <t>830784</t>
-  </si>
-  <si>
-    <t>834367</t>
-  </si>
-  <si>
-    <t>839957</t>
-  </si>
-  <si>
-    <t>430492</t>
-  </si>
-  <si>
-    <t>839898</t>
-  </si>
-  <si>
-    <t>836019</t>
-  </si>
-  <si>
-    <t>430152</t>
-  </si>
-  <si>
-    <t>430090</t>
-  </si>
-  <si>
-    <t>830877</t>
-  </si>
-  <si>
-    <t>834315</t>
-  </si>
-  <si>
-    <t>837702</t>
-  </si>
-  <si>
-    <t>835184</t>
-  </si>
-  <si>
-    <t>430432</t>
-  </si>
-  <si>
-    <t>837899</t>
-  </si>
-  <si>
-    <t>833729</t>
-  </si>
-  <si>
-    <t>834464</t>
-  </si>
-  <si>
-    <t>832507</t>
-  </si>
-  <si>
-    <t>835432</t>
-  </si>
-  <si>
-    <t>832123</t>
-  </si>
-  <si>
-    <t>871707</t>
-  </si>
-  <si>
-    <t>430029</t>
-  </si>
-  <si>
-    <t>834668</t>
-  </si>
-  <si>
-    <t>837684</t>
-  </si>
-  <si>
-    <t>870988</t>
-  </si>
-  <si>
-    <t>836129</t>
-  </si>
-  <si>
-    <t>836200</t>
-  </si>
-  <si>
-    <t>832146</t>
-  </si>
-  <si>
-    <t>830978</t>
-  </si>
-  <si>
-    <t>837618</t>
-  </si>
-  <si>
-    <t>831758</t>
-  </si>
-  <si>
-    <t>831099</t>
-  </si>
-  <si>
-    <t>430719</t>
-  </si>
-  <si>
-    <t>871118</t>
-  </si>
-  <si>
-    <t>870711</t>
-  </si>
-  <si>
-    <t>834459</t>
-  </si>
-  <si>
-    <t>836761</t>
-  </si>
-  <si>
-    <t>833160</t>
-  </si>
-  <si>
-    <t>830925</t>
-  </si>
-  <si>
-    <t>837823</t>
-  </si>
-  <si>
-    <t>430118</t>
-  </si>
-  <si>
-    <t>871912</t>
-  </si>
-  <si>
-    <t>837598</t>
-  </si>
-  <si>
-    <t>837994</t>
-  </si>
-  <si>
-    <t>870339</t>
-  </si>
-  <si>
-    <t>430141</t>
-  </si>
-  <si>
-    <t>833914</t>
-  </si>
-  <si>
-    <t>835478</t>
-  </si>
-  <si>
-    <t>839475</t>
-  </si>
-  <si>
-    <t>836147</t>
-  </si>
-  <si>
-    <t>麦驰物联</t>
-  </si>
-  <si>
-    <t>晓天智能</t>
-  </si>
-  <si>
-    <t>天涯泰盟</t>
-  </si>
-  <si>
-    <t>华澳能源</t>
-  </si>
-  <si>
-    <t>帝杰曼</t>
-  </si>
-  <si>
-    <t>威星电子</t>
-  </si>
-  <si>
-    <t>蓝华科技</t>
-  </si>
-  <si>
-    <t>威尔凯</t>
-  </si>
-  <si>
-    <t>美康基因</t>
-  </si>
-  <si>
-    <t>中航太克</t>
-  </si>
-  <si>
-    <t>老来寿</t>
-  </si>
-  <si>
-    <t>爆米花</t>
+    <t>朗星照明</t>
+  </si>
+  <si>
+    <t>永裕竹业</t>
+  </si>
+  <si>
+    <t>东创科技</t>
+  </si>
+  <si>
+    <t>中投保</t>
+  </si>
+  <si>
+    <t>爱知之星</t>
+  </si>
+  <si>
+    <t>志能祥赢</t>
+  </si>
+  <si>
+    <t>华银科技</t>
+  </si>
+  <si>
+    <t>中一检测</t>
+  </si>
+  <si>
+    <t>彩虹科技</t>
+  </si>
+  <si>
+    <t>乐普诊断</t>
+  </si>
+  <si>
+    <t>良品观</t>
+  </si>
+  <si>
+    <t>金蓝络</t>
+  </si>
+  <si>
+    <t>安德建奇</t>
+  </si>
+  <si>
+    <t>正兴玉</t>
+  </si>
+  <si>
+    <t>明博教育</t>
+  </si>
+  <si>
+    <t>九州量子</t>
+  </si>
+  <si>
+    <t>七星科技</t>
+  </si>
+  <si>
+    <t>清睿教育</t>
+  </si>
+  <si>
+    <t>河马股份</t>
+  </si>
+  <si>
+    <t>三态股份</t>
+  </si>
+  <si>
+    <t>聚阳环保</t>
+  </si>
+  <si>
+    <t>元亨光电</t>
+  </si>
+  <si>
+    <t>蓝图新材</t>
+  </si>
+  <si>
+    <t>骐俊股份</t>
+  </si>
+  <si>
+    <t>捷世智通</t>
+  </si>
+  <si>
+    <t>瑞聚股份</t>
+  </si>
+  <si>
+    <t>创兴智能</t>
+  </si>
+  <si>
+    <t>环奥电梯</t>
+  </si>
+  <si>
+    <t>罗美特</t>
   </si>
   <si>
     <t>阿尔特</t>
   </si>
   <si>
-    <t>思银股份</t>
-  </si>
-  <si>
-    <t>同辉信息</t>
-  </si>
-  <si>
-    <t>康莱股份</t>
-  </si>
-  <si>
-    <t>富源科技</t>
-  </si>
-  <si>
-    <t>天宏股份</t>
-  </si>
-  <si>
-    <t>国源科技</t>
-  </si>
-  <si>
-    <t>方林科技</t>
-  </si>
-  <si>
-    <t>同华科技</t>
-  </si>
-  <si>
-    <t>乐普诊断</t>
-  </si>
-  <si>
-    <t>ST纽哈斯</t>
-  </si>
-  <si>
-    <t>晶宇环境</t>
-  </si>
-  <si>
-    <t>智联股份</t>
-  </si>
-  <si>
-    <t>环球石材</t>
-  </si>
-  <si>
-    <t>利林商业</t>
-  </si>
-  <si>
-    <t>金 泰 得</t>
-  </si>
-  <si>
-    <t>同昌保险</t>
-  </si>
-  <si>
-    <t>英妮股份</t>
-  </si>
-  <si>
-    <t>世开股份</t>
-  </si>
-  <si>
-    <t>中源股份</t>
-  </si>
-  <si>
-    <t>国建新能</t>
-  </si>
-  <si>
-    <t>德平科技</t>
-  </si>
-  <si>
-    <t>先临三维</t>
-  </si>
-  <si>
-    <t>杭设股份</t>
-  </si>
-  <si>
-    <t>意欧斯</t>
-  </si>
-  <si>
-    <t>维泰股份</t>
-  </si>
-  <si>
-    <t>九鼎集团</t>
-  </si>
-  <si>
-    <t>东长新能</t>
-  </si>
-  <si>
-    <t>泰莱电气</t>
-  </si>
-  <si>
-    <t>利洁生物</t>
-  </si>
-  <si>
-    <t>九博科技</t>
-  </si>
-  <si>
-    <t>鲁班药业</t>
-  </si>
-  <si>
-    <t>鄂信钻石</t>
-  </si>
-  <si>
-    <t>驿路通</t>
-  </si>
-  <si>
-    <t>中钰医疗</t>
-  </si>
-  <si>
-    <t>睿通股份</t>
-  </si>
-  <si>
-    <t>绿嘉股份</t>
-  </si>
-  <si>
-    <t>金色文创</t>
-  </si>
-  <si>
-    <t>合印股份</t>
+    <t>杰事杰</t>
+  </si>
+  <si>
+    <t>蓝源传媒</t>
+  </si>
+  <si>
+    <t>商会网络</t>
+  </si>
+  <si>
+    <t>成丰股份</t>
+  </si>
+  <si>
+    <t>天智航</t>
+  </si>
+  <si>
+    <t>联 飞 翔</t>
+  </si>
+  <si>
+    <t>美福润</t>
+  </si>
+  <si>
+    <t>鸿盛华</t>
+  </si>
+  <si>
+    <t>兆方石油</t>
+  </si>
+  <si>
+    <t>东方网</t>
+  </si>
+  <si>
+    <t>亿海股份</t>
+  </si>
+  <si>
+    <t>粤辉科技</t>
+  </si>
+  <si>
+    <t>航天凯天</t>
   </si>
   <si>
     <t>久日新材</t>
   </si>
   <si>
-    <t>远航合金</t>
-  </si>
-  <si>
-    <t>灏景传媒</t>
-  </si>
-  <si>
-    <t>江通传媒</t>
-  </si>
-  <si>
-    <t>智慧眼</t>
+    <t>蜀旺能源</t>
+  </si>
+  <si>
+    <t>东吾洋</t>
+  </si>
+  <si>
+    <t>蓝能科技</t>
+  </si>
+  <si>
+    <t>航天常兴</t>
+  </si>
+  <si>
+    <t>赛德丽</t>
+  </si>
+  <si>
+    <t>天懋信息</t>
+  </si>
+  <si>
+    <t>黔中泉</t>
+  </si>
+  <si>
+    <t>东进农牧</t>
+  </si>
+  <si>
+    <t>丰光精密</t>
+  </si>
+  <si>
+    <t>兴易达</t>
   </si>
 </sst>
 </file>
@@ -877,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>909.8073000000001</v>
+        <v>894.1754</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -885,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0014</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -901,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1059.4504</v>
+        <v>1051.3481</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -909,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -925,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>412838201.43</v>
+        <v>694862938.5700001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -933,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>315489298.1</v>
+        <v>560486401.37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -941,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>97348903.33</v>
+        <v>134376537.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -949,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>142965268.4</v>
+        <v>169130698.05</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1200,7 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>27.04</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -995,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>21.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1006,7 +1222,7 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>15.14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1017,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>11.83</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1028,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>11.43</v>
+        <v>11.11</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1279,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>-42.86</v>
+        <v>-37.35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1074,7 +1290,7 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>-25.15</v>
+        <v>-30.18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1085,7 +1301,7 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>-22.76</v>
+        <v>-30.09</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1096,7 +1312,7 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>-21.05</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1107,7 +1323,7 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>-20.25</v>
+        <v>-24.83</v>
       </c>
     </row>
   </sheetData>
@@ -1139,10 +1355,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>10225050</v>
+        <v>17667810</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1150,43 +1366,43 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>8002500</v>
+        <v>7656300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>7945980</v>
+        <v>7075140</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5">
-        <v>5895840</v>
+        <v>6786000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>5519460</v>
+        <v>5647760</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1412,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1210,234 +1426,234 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="D2">
-        <v>1258000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="D3">
-        <v>499000</v>
+        <v>233000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>125000</v>
+        <v>187000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C5">
-        <v>2.91</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>1000000</v>
+        <v>193660</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>200000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>0.52</v>
       </c>
       <c r="D8">
-        <v>130000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>1.54</v>
       </c>
       <c r="D9">
-        <v>101000</v>
+        <v>1976000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>322500</v>
+        <v>1600445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="D11">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C12">
-        <v>3.08</v>
+        <v>9.5</v>
       </c>
       <c r="D12">
-        <v>1300000</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>27.17</v>
+        <v>4.85</v>
       </c>
       <c r="D14">
-        <v>70000</v>
+        <v>865000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1.36</v>
       </c>
       <c r="D15">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="D16">
-        <v>447000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C17">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="D17">
-        <v>414000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1445,13 +1661,13 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="C18">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>178000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1459,13 +1675,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="C19">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
-        <v>2290000</v>
+        <v>411000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1473,10 +1689,10 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C20">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>100000</v>
@@ -1484,41 +1700,41 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>750000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="D22">
-        <v>800000</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="D23">
         <v>100000</v>
@@ -1526,251 +1742,251 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>7.76</v>
       </c>
       <c r="D24">
-        <v>600000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D25">
-        <v>290000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C26">
-        <v>2.91</v>
+        <v>0.52</v>
       </c>
       <c r="D26">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C27">
-        <v>8.699999999999999</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>862000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C28">
-        <v>5.5</v>
+        <v>3.03</v>
       </c>
       <c r="D28">
-        <v>260000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C29">
-        <v>5.5</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D29">
-        <v>100000</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C30">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D30">
-        <v>169000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C31">
-        <v>2.73</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>823680</v>
+        <v>499000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C32">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="D32">
-        <v>100000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>500000</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C34">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="D34">
-        <v>105000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D35">
-        <v>169000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C36">
-        <v>0.26</v>
+        <v>4.5</v>
       </c>
       <c r="D36">
-        <v>130000</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="D37">
-        <v>1000000</v>
+        <v>617000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="C38">
-        <v>2.08</v>
+        <v>5.5</v>
       </c>
       <c r="D38">
-        <v>105000</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>151000</v>
+        <v>407000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="D40">
-        <v>547000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C41">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="D41">
         <v>1000000</v>
@@ -1778,27 +1994,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="C42">
-        <v>2.91</v>
+        <v>11.99</v>
       </c>
       <c r="D42">
-        <v>750000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>3.72</v>
       </c>
       <c r="D43">
         <v>100000</v>
@@ -1806,562 +2022,1108 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C44">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="D44">
-        <v>199000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C45">
         <v>4.5</v>
       </c>
       <c r="D45">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="D46">
-        <v>160000</v>
+        <v>190458000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C47">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="D47">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C48">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>1180000</v>
+        <v>609000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C49">
-        <v>3.84</v>
+        <v>1.58</v>
       </c>
       <c r="D49">
-        <v>1063610</v>
+        <v>14111000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="D50">
-        <v>9660000</v>
+        <v>1497000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="C51">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C52">
-        <v>13</v>
+        <v>4.28</v>
       </c>
       <c r="D52">
-        <v>192000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C53">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="D53">
-        <v>102000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="C54">
-        <v>5.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D54">
-        <v>1000000</v>
+        <v>862000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="C55">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="D55">
-        <v>1000000</v>
+        <v>594000</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C56">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="D56">
-        <v>9837692</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C57">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>105000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="D58">
-        <v>250000</v>
+        <v>362000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="D59">
-        <v>280000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D60">
-        <v>150000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>0.15</v>
       </c>
       <c r="D61">
-        <v>500000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D62">
-        <v>100000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>0.52</v>
       </c>
       <c r="D63">
-        <v>160000</v>
+        <v>149731</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C64">
-        <v>7.65</v>
+        <v>1.65</v>
       </c>
       <c r="D64">
-        <v>130000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>7.71</v>
       </c>
       <c r="D65">
-        <v>120000</v>
+        <v>194400</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C66">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="D66">
-        <v>240000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D67">
-        <v>500000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C68">
-        <v>38</v>
+        <v>9.99</v>
       </c>
       <c r="D68">
-        <v>88526</v>
+        <v>1224000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="D69">
-        <v>103000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>4.01</v>
       </c>
       <c r="D70">
-        <v>263000</v>
+        <v>217000</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C71">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>320000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>189000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="C73">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D73">
-        <v>700000</v>
+        <v>1807000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>1.37</v>
       </c>
       <c r="D74">
-        <v>130000</v>
+        <v>262000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="C75">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>649000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C76">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="D76">
-        <v>299000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>397000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="D78">
-        <v>4880000</v>
+        <v>274000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="C79">
-        <v>5.1</v>
+        <v>3.11</v>
       </c>
       <c r="D79">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C80">
-        <v>16.83</v>
+        <v>52</v>
       </c>
       <c r="D80">
-        <v>600000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81">
-        <v>4900000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="C82">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>120000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D83">
+        <v>5759000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84">
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85">
+        <v>3.5</v>
+      </c>
+      <c r="D85">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86">
+        <v>9.99</v>
+      </c>
+      <c r="D86">
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88">
+        <v>2.5</v>
+      </c>
+      <c r="D88">
+        <v>157000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90">
+        <v>1.95</v>
+      </c>
+      <c r="D90">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91">
+        <v>1.58</v>
+      </c>
+      <c r="D91">
+        <v>3472000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92">
+        <v>3.2</v>
+      </c>
+      <c r="D92">
+        <v>1762000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93">
+        <v>0.84</v>
+      </c>
+      <c r="D93">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94">
+        <v>14.5</v>
+      </c>
+      <c r="D94">
+        <v>206000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>356000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96">
+        <v>4.5</v>
+      </c>
+      <c r="D96">
+        <v>579000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>217</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98">
+        <v>5.5</v>
+      </c>
+      <c r="D98">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99">
+        <v>2.3</v>
+      </c>
+      <c r="D99">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>199000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102">
+        <v>14.5</v>
+      </c>
+      <c r="D102">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103">
+        <v>1.16</v>
+      </c>
+      <c r="D103">
+        <v>407000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105">
+        <v>1.4</v>
+      </c>
+      <c r="D105">
+        <v>769000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>90</v>
+      </c>
+      <c r="B106" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106">
+        <v>4.5</v>
+      </c>
+      <c r="D106">
+        <v>311000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+      <c r="C108">
+        <v>1.8</v>
+      </c>
+      <c r="D108">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109">
+        <v>8.26</v>
+      </c>
+      <c r="D109">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
         <v>137</v>
       </c>
-      <c r="C83">
-        <v>10</v>
-      </c>
-      <c r="D83">
-        <v>300000</v>
+      <c r="B110" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110">
+        <v>2.02</v>
+      </c>
+      <c r="D110">
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
+        <v>1.55</v>
+      </c>
+      <c r="D112">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113">
+        <v>2.15</v>
+      </c>
+      <c r="D113">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>551000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>1.55</v>
+      </c>
+      <c r="D115">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116">
+        <v>16.8</v>
+      </c>
+      <c r="D116">
+        <v>448000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117">
+        <v>6.49</v>
+      </c>
+      <c r="D117">
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118">
+        <v>1.62</v>
+      </c>
+      <c r="D118">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119">
+        <v>1.2</v>
+      </c>
+      <c r="D119">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>1529000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121">
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122">
+        <v>15.87</v>
+      </c>
+      <c r="D122">
+        <v>368000</v>
       </c>
     </row>
   </sheetData>
